--- a/core/seed_sales_saleinvoiceheader.xlsx
+++ b/core/seed_sales_saleinvoiceheader.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jan.cheng\Documents\Visual Studio Code\Django\p_sys01_repo01\core\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4357D741-A480-4D69-9B95-5A287ED2489F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{917521A0-8A7E-4CE4-A02E-46DDAD157591}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>CODE</t>
   </si>
@@ -31,9 +31,6 @@
     <t>test-id-14</t>
   </si>
   <si>
-    <t>test-id-15</t>
-  </si>
-  <si>
     <t>STATUS</t>
   </si>
   <si>
@@ -50,9 +47,6 @@
   </si>
   <si>
     <t>SIH 02</t>
-  </si>
-  <si>
-    <t>SIH 03</t>
   </si>
   <si>
     <t>PATIENT</t>
@@ -912,10 +906,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -933,73 +927,53 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
-        <v>7</v>
-      </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1">
         <v>45664</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" s="1">
         <v>45664</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="1">
-        <v>45665</v>
-      </c>
-      <c r="C4" t="s">
         <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/core/seed_sales_saleinvoiceheader.xlsx
+++ b/core/seed_sales_saleinvoiceheader.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jan.cheng\Documents\Visual Studio Code\Django\p_sys01_repo01\core\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{917521A0-8A7E-4CE4-A02E-46DDAD157591}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4CAB5B1-9CBD-4C73-8AFD-4FA15244AD05}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="49">
   <si>
     <t>CODE</t>
   </si>
@@ -28,9 +28,6 @@
     <t>DATE</t>
   </si>
   <si>
-    <t>test-id-14</t>
-  </si>
-  <si>
     <t>STATUS</t>
   </si>
   <si>
@@ -43,25 +40,133 @@
     <t>CUSTOMER</t>
   </si>
   <si>
-    <t>SIH 01</t>
-  </si>
-  <si>
-    <t>SIH 02</t>
-  </si>
-  <si>
     <t>PATIENT</t>
   </si>
   <si>
     <t>RETAIL</t>
   </si>
   <si>
-    <t>OPEN (FOR PAYMENT)</t>
-  </si>
-  <si>
     <t>CLOSED</t>
   </si>
   <si>
-    <t>cust-01</t>
+    <t>SI-1</t>
+  </si>
+  <si>
+    <t>GOVERNMENT</t>
+  </si>
+  <si>
+    <t>TEST-ID-14</t>
+  </si>
+  <si>
+    <t>CUST-02</t>
+  </si>
+  <si>
+    <t>SI-2</t>
+  </si>
+  <si>
+    <t>CORPORATE</t>
+  </si>
+  <si>
+    <t>CUST-01</t>
+  </si>
+  <si>
+    <t>SI-3</t>
+  </si>
+  <si>
+    <t>CUST-03</t>
+  </si>
+  <si>
+    <t>SI-4</t>
+  </si>
+  <si>
+    <t>TEST-ID-15</t>
+  </si>
+  <si>
+    <t>SI-5</t>
+  </si>
+  <si>
+    <t>SI-6</t>
+  </si>
+  <si>
+    <t>WHOLESALE</t>
+  </si>
+  <si>
+    <t>SI-7</t>
+  </si>
+  <si>
+    <t>SI-8</t>
+  </si>
+  <si>
+    <t>SI-9</t>
+  </si>
+  <si>
+    <t>SI-10</t>
+  </si>
+  <si>
+    <t>SI-11</t>
+  </si>
+  <si>
+    <t>SI-12</t>
+  </si>
+  <si>
+    <t>SI-13</t>
+  </si>
+  <si>
+    <t>SI-14</t>
+  </si>
+  <si>
+    <t>SI-15</t>
+  </si>
+  <si>
+    <t>SI-16</t>
+  </si>
+  <si>
+    <t>SI-17</t>
+  </si>
+  <si>
+    <t>SI-18</t>
+  </si>
+  <si>
+    <t>SI-19</t>
+  </si>
+  <si>
+    <t>SI-20</t>
+  </si>
+  <si>
+    <t>SI-21</t>
+  </si>
+  <si>
+    <t>SI-22</t>
+  </si>
+  <si>
+    <t>SI-23</t>
+  </si>
+  <si>
+    <t>SI-24</t>
+  </si>
+  <si>
+    <t>SI-25</t>
+  </si>
+  <si>
+    <t>SI-26</t>
+  </si>
+  <si>
+    <t>SI-27</t>
+  </si>
+  <si>
+    <t>SI-28</t>
+  </si>
+  <si>
+    <t>SI-29</t>
+  </si>
+  <si>
+    <t>SI-30</t>
+  </si>
+  <si>
+    <t>SI-31</t>
+  </si>
+  <si>
+    <t>SI-32</t>
   </si>
 </sst>
 </file>
@@ -69,7 +174,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -550,7 +655,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -906,10 +1011,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="A2" sqref="A2:F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -927,53 +1032,656 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
-        <v>6</v>
-      </c>
       <c r="F1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B2" s="1">
-        <v>45664</v>
+        <v>45658</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B3" s="1">
+        <v>45659</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="1">
+        <v>45660</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="1">
+        <v>45661</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="1">
+        <v>45662</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="1">
+        <v>45663</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="1">
         <v>45664</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="1">
+        <v>45665</v>
+      </c>
+      <c r="C9" t="s">
         <v>10</v>
       </c>
-      <c r="D3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" t="s">
-        <v>11</v>
+      <c r="D9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="1">
+        <v>45666</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="1">
+        <v>45667</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="1">
+        <v>45668</v>
+      </c>
+      <c r="C12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="1">
+        <v>45669</v>
+      </c>
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="1">
+        <v>45670</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="1">
+        <v>45671</v>
+      </c>
+      <c r="C15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="1">
+        <v>45672</v>
+      </c>
+      <c r="C16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="1">
+        <v>45673</v>
+      </c>
+      <c r="C17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="1">
+        <v>45674</v>
+      </c>
+      <c r="C18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="1">
+        <v>45675</v>
+      </c>
+      <c r="C19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="1">
+        <v>45676</v>
+      </c>
+      <c r="C20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="1">
+        <v>45677</v>
+      </c>
+      <c r="C21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" s="1">
+        <v>45678</v>
+      </c>
+      <c r="C22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" s="1">
+        <v>45679</v>
+      </c>
+      <c r="C23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="1">
+        <v>45680</v>
+      </c>
+      <c r="C24" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" s="1">
+        <v>45681</v>
+      </c>
+      <c r="C25" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" t="s">
+        <v>17</v>
+      </c>
+      <c r="F25" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" s="1">
+        <v>45682</v>
+      </c>
+      <c r="C26" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26" t="s">
+        <v>15</v>
+      </c>
+      <c r="F26" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" s="1">
+        <v>45683</v>
+      </c>
+      <c r="C27" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" t="s">
+        <v>19</v>
+      </c>
+      <c r="E27" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28" s="1">
+        <v>45684</v>
+      </c>
+      <c r="C28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" t="s">
+        <v>19</v>
+      </c>
+      <c r="E28" t="s">
+        <v>15</v>
+      </c>
+      <c r="F28" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29" s="1">
+        <v>45685</v>
+      </c>
+      <c r="C29" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" t="s">
+        <v>15</v>
+      </c>
+      <c r="F29" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>45</v>
+      </c>
+      <c r="B30" s="1">
+        <v>45686</v>
+      </c>
+      <c r="C30" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>46</v>
+      </c>
+      <c r="B31" s="1">
+        <v>45687</v>
+      </c>
+      <c r="C31" t="s">
+        <v>22</v>
+      </c>
+      <c r="D31" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" t="s">
+        <v>12</v>
+      </c>
+      <c r="F31" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>47</v>
+      </c>
+      <c r="B32" s="1">
+        <v>45688</v>
+      </c>
+      <c r="C32" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32" t="s">
+        <v>19</v>
+      </c>
+      <c r="E32" t="s">
+        <v>17</v>
+      </c>
+      <c r="F32" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>48</v>
+      </c>
+      <c r="B33" s="1">
+        <v>45689</v>
+      </c>
+      <c r="C33" t="s">
+        <v>10</v>
+      </c>
+      <c r="D33" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33" t="s">
+        <v>17</v>
+      </c>
+      <c r="F33" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
